--- a/Requisitos/ListaRequisitos_SA03.xlsx
+++ b/Requisitos/ListaRequisitos_SA03.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="60">
   <si>
     <t>Identificador</t>
   </si>
@@ -199,10 +199,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d.m"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -216,9 +217,6 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -292,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -319,14 +317,11 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -343,11 +338,8 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -696,7 +688,7 @@
       <c r="L5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>44473.0</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -714,7 +706,7 @@
       <c r="C6" s="10">
         <v>44457.0</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -726,7 +718,7 @@
       <c r="H6" s="10">
         <v>44457.0</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="11" t="s">
@@ -735,10 +727,10 @@
       <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <v>44473.0</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -750,33 +742,33 @@
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="14"/>
       <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="14"/>
       <c r="L7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="15"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" ht="46.5" customHeight="1">
       <c r="A8" s="2"/>
@@ -828,7 +820,7 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="16"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="3" t="s">
         <v>0</v>
       </c>
@@ -891,7 +883,7 @@
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>44473.0</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -930,10 +922,10 @@
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>44473.0</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -945,7 +937,7 @@
       <c r="H14" s="10">
         <v>44458.0</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -957,7 +949,7 @@
       <c r="M14" s="10">
         <v>44458.0</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="11" t="s">
@@ -969,33 +961,33 @@
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="14"/>
       <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="14"/>
       <c r="L15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="15"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" ht="40.5" customHeight="1">
       <c r="A16" s="2"/>
@@ -1047,7 +1039,7 @@
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="16"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1100,7 @@
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>44474.0</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1120,7 +1112,7 @@
       <c r="G21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <v>44474.0</v>
       </c>
       <c r="I21" s="3" t="s">
@@ -1132,21 +1124,21 @@
       <c r="L21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M21" s="17"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="15"/>
+      <c r="O21" s="14"/>
     </row>
     <row r="22" ht="28.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>44474.0</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -1155,10 +1147,10 @@
       <c r="G22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="10">
         <v>44474.0</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="12" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="11" t="s">
@@ -1167,44 +1159,44 @@
       <c r="L22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="14"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="14"/>
       <c r="G23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="15"/>
+      <c r="J23" s="14"/>
       <c r="L23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="13" t="s">
         <v>15</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="15"/>
+      <c r="O23" s="14"/>
     </row>
     <row r="24" ht="40.5" customHeight="1">
       <c r="A24" s="2"/>
@@ -1251,23 +1243,23 @@
     <mergeCell ref="K10:K16"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F18:F24"/>
+    <mergeCell ref="K18:K24"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H24:J24"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="B1:O1"/>
+    <mergeCell ref="P1:P25"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="B25:O25"/>
-    <mergeCell ref="P1:P25"/>
-    <mergeCell ref="F18:F24"/>
-    <mergeCell ref="K18:K24"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H24:J24"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="B9:O9"/>
     <mergeCell ref="M10:O10"/>
@@ -1422,7 +1414,7 @@
       <c r="C5" s="10">
         <v>44458.0</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -1431,7 +1423,9 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="10">
+        <v>44476.0</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1459,7 +1453,7 @@
       <c r="C6" s="10">
         <v>44458.0</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -1468,8 +1462,10 @@
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="10">
+        <v>44476.0</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="11" t="s">
@@ -1481,7 +1477,7 @@
       <c r="M6" s="10">
         <v>44458.0</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -1493,17 +1489,17 @@
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="14"/>
       <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -1513,13 +1509,13 @@
       <c r="L7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="15"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" ht="46.5" customHeight="1">
       <c r="A8" s="2"/>
@@ -1571,7 +1567,7 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="16"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1630,7 @@
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>44475.0</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1646,7 +1642,7 @@
       <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1656,7 +1652,7 @@
       <c r="L13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="10">
         <v>44475.0</v>
       </c>
       <c r="N13" s="3" t="s">
@@ -1671,10 +1667,10 @@
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="12">
-        <v>44475.0</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="10">
+        <v>44476.0</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -1683,8 +1679,8 @@
       <c r="G14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="13" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -1693,10 +1689,10 @@
       <c r="L14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="10">
         <v>44475.0</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="11" t="s">
@@ -1708,31 +1704,31 @@
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>15</v>
+      <c r="C15" s="17">
+        <v>44197.0</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="14"/>
       <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="14"/>
       <c r="L15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="20"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="15"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" ht="40.5" customHeight="1">
       <c r="A16" s="2"/>
@@ -1784,7 +1780,7 @@
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="16"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1795,7 @@
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="G19" s="3" t="s">
@@ -1841,81 +1837,81 @@
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="14"/>
       <c r="G21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="15"/>
+      <c r="J21" s="14"/>
       <c r="L21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M21" s="17"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="15"/>
+      <c r="O21" s="14"/>
     </row>
     <row r="22" ht="28.5" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="14"/>
       <c r="G22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="14"/>
       <c r="L22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="14"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="14"/>
       <c r="G23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="15"/>
+      <c r="J23" s="14"/>
       <c r="L23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="20"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="15"/>
+      <c r="O23" s="14"/>
     </row>
     <row r="24" ht="40.5" customHeight="1">
       <c r="A24" s="2"/>
@@ -1950,14 +1946,14 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="M4:O4"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:J8"/>
     <mergeCell ref="F2:F8"/>
     <mergeCell ref="F10:F16"/>
     <mergeCell ref="K2:K8"/>
     <mergeCell ref="K10:K16"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C8:E8"/>
     <mergeCell ref="F18:F24"/>
     <mergeCell ref="K18:K24"/>
     <mergeCell ref="H19:J19"/>

--- a/Requisitos/ListaRequisitos_SA03.xlsx
+++ b/Requisitos/ListaRequisitos_SA03.xlsx
@@ -199,11 +199,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d.m"/>
+    <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -217,6 +218,13 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -290,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -338,7 +346,13 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1450,8 +1464,8 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10">
-        <v>44458.0</v>
+      <c r="C6" s="17">
+        <v>44481.0</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -1489,8 +1503,8 @@
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>15</v>
+      <c r="C7" s="18">
+        <v>44197.0</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
@@ -1642,7 +1656,9 @@
       <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="10">
+        <v>44480.0</v>
+      </c>
       <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1679,7 +1695,9 @@
       <c r="G14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="19">
+        <v>44480.0</v>
+      </c>
       <c r="I14" s="12" t="s">
         <v>10</v>
       </c>
@@ -1704,7 +1722,7 @@
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="18">
         <v>44197.0</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1724,7 +1742,9 @@
       <c r="L15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="18"/>
+      <c r="M15" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="N15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1891,7 +1911,7 @@
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
@@ -1899,7 +1919,7 @@
       <c r="G23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
@@ -1907,7 +1927,7 @@
       <c r="L23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="18"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="3" t="s">
         <v>16</v>
       </c>
